--- a/pyloghub/sample_data/MilkrunSampleDataReverse.xlsx
+++ b/pyloghub/sample_data/MilkrunSampleDataReverse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\log-hub-python\pyloghub\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3903C8-9F90-4BB5-BFFD-FD77C263FB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B96A20E-6F75-4391-9637-5AEDC98B5491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CFD30497-BEC2-4CBA-898F-A0F509C5FA9E}"/>
   </bookViews>
@@ -196,30 +196,18 @@
     <t>maxCapacityVolume</t>
   </si>
   <si>
-    <t>maxCapacityLoadingMeter</t>
-  </si>
-  <si>
     <t>fixedCosts</t>
   </si>
   <si>
     <t>costsPerStop</t>
   </si>
   <si>
-    <t>costsPerKm</t>
-  </si>
-  <si>
     <t>weight</t>
   </si>
   <si>
     <t>volume</t>
   </si>
   <si>
-    <t>loadingMeter</t>
-  </si>
-  <si>
-    <t>modus</t>
-  </si>
-  <si>
     <t>depot</t>
   </si>
   <si>
@@ -232,10 +220,22 @@
     <t>endTimeWindow</t>
   </si>
   <si>
-    <t>opportunityCosts</t>
-  </si>
-  <si>
     <t>startTimeWindow</t>
+  </si>
+  <si>
+    <t>maxCapacityPallets</t>
+  </si>
+  <si>
+    <t>costsPerDistanceUnit</t>
+  </si>
+  <si>
+    <t>pallets</t>
+  </si>
+  <si>
+    <t>pickupDelivery</t>
+  </si>
+  <si>
+    <t>externalCosts</t>
   </si>
 </sst>
 </file>
@@ -346,10 +346,10 @@
     <tableColumn id="8" xr3:uid="{2DB59301-2EA7-4C03-8E26-0B908218A8BC}" name="maxRouteDuration"/>
     <tableColumn id="9" xr3:uid="{AC7061EA-4D61-49B0-9A6C-63C478551611}" name="maxCapacityWeight"/>
     <tableColumn id="10" xr3:uid="{62824E95-FB39-4B30-98A7-EBB763948148}" name="maxCapacityVolume"/>
-    <tableColumn id="11" xr3:uid="{CE13C430-6B75-4400-8E67-B8A76A1CE4CE}" name="maxCapacityLoadingMeter"/>
+    <tableColumn id="11" xr3:uid="{CE13C430-6B75-4400-8E67-B8A76A1CE4CE}" name="maxCapacityPallets"/>
     <tableColumn id="12" xr3:uid="{7CF9F6E0-9F3E-43BE-B58E-58B9EC6405CF}" name="fixedCosts"/>
     <tableColumn id="13" xr3:uid="{C7713809-246E-4BD1-8E2C-6F894E00E933}" name="costsPerStop"/>
-    <tableColumn id="14" xr3:uid="{4D36F26C-5020-4FD4-8D86-5267D158CFF2}" name="costsPerKm"/>
+    <tableColumn id="14" xr3:uid="{4D36F26C-5020-4FD4-8D86-5267D158CFF2}" name="costsPerDistanceUnit"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -365,14 +365,14 @@
     <tableColumn id="3" xr3:uid="{47B54DF0-8F4E-4B32-9BAD-D6BA2DFC793F}" name="longitude"/>
     <tableColumn id="4" xr3:uid="{A170D00E-51C7-405D-9778-A9B81019CF63}" name="weight"/>
     <tableColumn id="5" xr3:uid="{9728F24F-CB81-41D2-A5DF-A0B75C500D45}" name="volume"/>
-    <tableColumn id="6" xr3:uid="{11C0DB00-2224-4FEB-9D84-352F977F98DC}" name="loadingMeter"/>
-    <tableColumn id="7" xr3:uid="{B98BD1ED-4FCF-4D48-B1B0-587A27C62431}" name="modus"/>
+    <tableColumn id="6" xr3:uid="{11C0DB00-2224-4FEB-9D84-352F977F98DC}" name="pallets"/>
+    <tableColumn id="7" xr3:uid="{B98BD1ED-4FCF-4D48-B1B0-587A27C62431}" name="pickupDelivery"/>
     <tableColumn id="8" xr3:uid="{2D51CAC1-FDED-4FBE-8879-867435E2CA14}" name="depot"/>
     <tableColumn id="9" xr3:uid="{2B14C8DE-EF82-41CF-996C-A0257330E52C}" name="vehicleType"/>
     <tableColumn id="10" xr3:uid="{AD605AA3-02C1-4698-B4C5-B9F7DC1949A7}" name="serviceTime"/>
     <tableColumn id="11" xr3:uid="{F606405D-0EF2-41F3-A12A-DAA00C29FBA9}" name="startTimeWindow" dataDxfId="1"/>
     <tableColumn id="12" xr3:uid="{EFB88E61-ABFB-4FE7-8F42-6B9EBE9506F0}" name="endTimeWindow" dataDxfId="0"/>
-    <tableColumn id="13" xr3:uid="{61DF819F-B338-43B0-A940-0C32E16524CC}" name="opportunityCosts"/>
+    <tableColumn id="13" xr3:uid="{61DF819F-B338-43B0-A940-0C32E16524CC}" name="externalCosts"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -812,7 +812,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,16 +852,16 @@
         <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -924,7 +924,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,34 +943,34 @@
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
